--- a/members_data.xlsx
+++ b/members_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -23,12 +23,6 @@
   </si>
   <si>
     <t>Amount_per_month</t>
-  </si>
-  <si>
-    <t>Walfaanaa Magarsaa</t>
-  </si>
-  <si>
-    <t>912861288</t>
   </si>
   <si>
     <t>Lammii Diroo</t>
@@ -439,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -544,7 +538,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>10000</v>
@@ -552,23 +546,12 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
       <c r="C10">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
         <v>10000</v>
       </c>
     </row>

--- a/members_data.xlsx
+++ b/members_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>935353535</t>
+  </si>
+  <si>
+    <t>Walfaanaa Magarsaa</t>
+  </si>
+  <si>
+    <t>Total money for winners</t>
   </si>
 </sst>
 </file>
@@ -102,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,13 +131,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -433,19 +453,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,8 +477,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -466,8 +491,11 @@
       <c r="C2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -477,8 +505,11 @@
       <c r="C3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -488,8 +519,11 @@
       <c r="C4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -499,8 +533,11 @@
       <c r="C5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -510,8 +547,11 @@
       <c r="C6">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -521,8 +561,11 @@
       <c r="C7">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -532,8 +575,11 @@
       <c r="C8">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -543,8 +589,11 @@
       <c r="C9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -553,6 +602,23 @@
       </c>
       <c r="C10">
         <v>10000</v>
+      </c>
+      <c r="D10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>912861288</v>
+      </c>
+      <c r="C11">
+        <v>10000</v>
+      </c>
+      <c r="D11">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/members_data.xlsx
+++ b/members_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Total money for winners</t>
+  </si>
+  <si>
+    <t>Qananiisaa Biqilaa</t>
+  </si>
+  <si>
+    <t>Oromiyaa Walfaanaa</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -621,6 +627,34 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>911818685</v>
+      </c>
+      <c r="C12">
+        <v>10000</v>
+      </c>
+      <c r="D12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>912861288</v>
+      </c>
+      <c r="C13">
+        <v>10000</v>
+      </c>
+      <c r="D13">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/members_data.xlsx
+++ b/members_data.xlsx
@@ -462,7 +462,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -498,7 +498,7 @@
         <v>10000</v>
       </c>
       <c r="D2">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -512,7 +512,7 @@
         <v>10000</v>
       </c>
       <c r="D3">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -526,7 +526,7 @@
         <v>10000</v>
       </c>
       <c r="D4">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -540,7 +540,7 @@
         <v>10000</v>
       </c>
       <c r="D5">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -554,7 +554,7 @@
         <v>10000</v>
       </c>
       <c r="D6">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -568,7 +568,7 @@
         <v>10000</v>
       </c>
       <c r="D7">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -582,7 +582,7 @@
         <v>10000</v>
       </c>
       <c r="D8">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -596,7 +596,7 @@
         <v>10000</v>
       </c>
       <c r="D9">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -610,7 +610,7 @@
         <v>10000</v>
       </c>
       <c r="D10">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -624,7 +624,7 @@
         <v>10000</v>
       </c>
       <c r="D11">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -638,7 +638,7 @@
         <v>10000</v>
       </c>
       <c r="D12">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -652,7 +652,7 @@
         <v>10000</v>
       </c>
       <c r="D13">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
   </sheetData>

--- a/members_data.xlsx
+++ b/members_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walfaanaam\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="132" yWindow="576" windowWidth="22716" windowHeight="9996"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,17 +87,17 @@
     <t>Total money for winners</t>
   </si>
   <si>
-    <t>Qananiisaa Biqilaa</t>
-  </si>
-  <si>
     <t>Oromiyaa Walfaanaa</t>
+  </si>
+  <si>
+    <t>Jabeessaa Dhugumaa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +174,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -462,10 +470,10 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
@@ -473,7 +481,7 @@
     <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -501,7 +509,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -515,7 +523,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -529,7 +537,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -543,7 +551,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -557,7 +565,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -571,7 +579,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -585,7 +593,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -599,7 +607,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -613,7 +621,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -627,12 +635,12 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12">
-        <v>911818685</v>
+        <v>912861288</v>
       </c>
       <c r="C12">
         <v>10000</v>
@@ -641,12 +649,12 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13">
-        <v>912861288</v>
+        <v>923151421</v>
       </c>
       <c r="C13">
         <v>10000</v>

--- a/members_data.xlsx
+++ b/members_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>977677737</t>
   </si>
   <si>
-    <t>Duraa Zarihun</t>
-  </si>
-  <si>
     <t>926757080</t>
   </si>
   <si>
@@ -82,12 +79,6 @@
   </si>
   <si>
     <t>Walfaanaa Magarsaa</t>
-  </si>
-  <si>
-    <t>Total money for winners</t>
-  </si>
-  <si>
-    <t>Oromiyaa Walfaanaa</t>
   </si>
   <si>
     <t>Jabeessaa Dhugumaa</t>
@@ -119,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,27 +133,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -478,10 +455,9 @@
     <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,11 +467,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -505,11 +478,8 @@
       <c r="C2">
         <v>10000</v>
       </c>
-      <c r="D2">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -519,11 +489,8 @@
       <c r="C3">
         <v>10000</v>
       </c>
-      <c r="D3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -533,11 +500,8 @@
       <c r="C4">
         <v>10000</v>
       </c>
-      <c r="D4">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -547,11 +511,8 @@
       <c r="C5">
         <v>10000</v>
       </c>
-      <c r="D5">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -561,11 +522,8 @@
       <c r="C6">
         <v>10000</v>
       </c>
-      <c r="D6">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -575,92 +533,49 @@
       <c r="C7">
         <v>10000</v>
       </c>
-      <c r="D7">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
       <c r="C8">
         <v>10000</v>
       </c>
-      <c r="D8">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>10000</v>
       </c>
-      <c r="D9">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
         <v>19</v>
       </c>
+      <c r="B10">
+        <v>912861288</v>
+      </c>
       <c r="C10">
         <v>10000</v>
       </c>
-      <c r="D10">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11">
-        <v>912861288</v>
+        <v>923151421</v>
       </c>
       <c r="C11">
         <v>10000</v>
-      </c>
-      <c r="D11">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>912861288</v>
-      </c>
-      <c r="C12">
-        <v>10000</v>
-      </c>
-      <c r="D12">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>923151421</v>
-      </c>
-      <c r="C13">
-        <v>10000</v>
-      </c>
-      <c r="D13">
-        <v>120000</v>
       </c>
     </row>
   </sheetData>

--- a/members_data.xlsx
+++ b/members_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>922956646</t>
-  </si>
-  <si>
-    <t>Warqii Lammaa</t>
-  </si>
-  <si>
-    <t>947763811</t>
   </si>
   <si>
     <t>Barsiisaa Margaa</t>
@@ -444,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,10 +519,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
       </c>
       <c r="C7">
         <v>10000</v>
@@ -536,10 +530,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
       <c r="C8">
         <v>10000</v>
@@ -549,8 +543,8 @@
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
+      <c r="B9">
+        <v>912861288</v>
       </c>
       <c r="C9">
         <v>10000</v>
@@ -558,23 +552,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>912861288</v>
+        <v>923151421</v>
       </c>
       <c r="C10">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>923151421</v>
-      </c>
-      <c r="C11">
         <v>10000</v>
       </c>
     </row>

--- a/members_data.xlsx
+++ b/members_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Jabeessaa Dhugumaa</t>
+  </si>
+  <si>
+    <t>Naggasaa Dheeressaa</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -561,6 +564,17 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>912356447</v>
+      </c>
+      <c r="C11">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
